--- a/tests/fixtures/orderforms/1508.28.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.28.mip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent.janvid/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C308DC-92D9-2E40-AD82-DE89C46CF3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B53EF-9B7A-254D-994A-CE2A786AF731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38760" yWindow="-6780" windowWidth="36340" windowHeight="22900" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="711">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -2768,12 +2768,6 @@
     </r>
   </si>
   <si>
-    <t>miprnasample2</t>
-  </si>
-  <si>
-    <t>miprnasample3</t>
-  </si>
-  <si>
     <t>plate1</t>
   </si>
   <si>
@@ -5165,8 +5159,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12852,7 +12846,7 @@
     </row>
     <row r="15" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="68" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>75</v>
@@ -12864,7 +12858,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>85</v>
@@ -12888,14 +12882,14 @@
         <v>20</v>
       </c>
       <c r="M15" s="117" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N15" s="89" t="s">
         <v>73</v>
       </c>
       <c r="O15" s="51"/>
       <c r="P15" s="73" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Q15" s="90" t="s">
         <v>81</v>
@@ -12905,13 +12899,13 @@
         <v>505</v>
       </c>
       <c r="T15" s="111" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="U15" s="68" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="V15" s="74" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="W15" s="75"/>
       <c r="X15" s="92"/>
@@ -12937,13 +12931,13 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="73" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AK15" s="93">
         <v>10</v>
       </c>
       <c r="AL15" s="73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -13938,7 +13932,7 @@
     </row>
     <row r="16" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="68" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>75</v>
@@ -13950,7 +13944,7 @@
         <v>500</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>119</v>
@@ -13974,7 +13968,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="117" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N16" s="89" t="s">
         <v>84</v>
@@ -13987,7 +13981,7 @@
         <v>505</v>
       </c>
       <c r="T16" s="111" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="U16" s="78"/>
       <c r="V16" s="79"/>
@@ -15004,7 +14998,7 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="68" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>75</v>
@@ -15016,13 +15010,13 @@
         <v>500</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F17" s="70" t="s">
         <v>96</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H17" s="72" t="s">
         <v>88</v>
@@ -15040,7 +15034,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="117" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N17" s="89" t="s">
         <v>84</v>
@@ -15053,7 +15047,7 @@
         <v>505</v>
       </c>
       <c r="T17" s="111" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="U17" s="78"/>
       <c r="V17" s="79"/>
@@ -16066,7 +16060,7 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="68" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>75</v>
@@ -16078,7 +16072,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F18" s="70" t="s">
         <v>124</v>
@@ -16102,7 +16096,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="117" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N18" s="89" t="s">
         <v>84</v>
@@ -17128,7 +17122,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="68" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>75</v>
@@ -17140,7 +17134,7 @@
         <v>500</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F19" s="70" t="s">
         <v>483</v>
@@ -17164,7 +17158,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="117" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N19" s="89" t="s">
         <v>84</v>
@@ -18190,7 +18184,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="68" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>75</v>
@@ -18202,7 +18196,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F20" s="70" t="s">
         <v>503</v>
@@ -18226,7 +18220,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="117" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N20" s="89" t="s">
         <v>84</v>
@@ -19252,7 +19246,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="68" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B21" s="69" t="s">
         <v>75</v>
@@ -19264,7 +19258,7 @@
         <v>500</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F21" s="70" t="s">
         <v>484</v>
@@ -19288,7 +19282,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="117" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N21" s="89" t="s">
         <v>84</v>
@@ -20314,7 +20308,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="68" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B22" s="69" t="s">
         <v>75</v>
@@ -20326,7 +20320,7 @@
         <v>500</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F22" s="70" t="s">
         <v>485</v>
@@ -20350,7 +20344,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="117" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N22" s="89" t="s">
         <v>84</v>
@@ -21376,7 +21370,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="68" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B23" s="69" t="s">
         <v>75</v>
@@ -21388,7 +21382,7 @@
         <v>500</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F23" s="70" t="s">
         <v>486</v>
@@ -21412,7 +21406,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="117" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N23" s="89" t="s">
         <v>84</v>
@@ -22438,7 +22432,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="68" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>75</v>
@@ -22450,7 +22444,7 @@
         <v>500</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F24" s="70" t="s">
         <v>504</v>
@@ -22474,7 +22468,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="117" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N24" s="89" t="s">
         <v>84</v>
@@ -23500,7 +23494,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="68" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B25" s="69" t="s">
         <v>75</v>
@@ -23512,7 +23506,7 @@
         <v>500</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F25" s="70" t="s">
         <v>487</v>
@@ -23536,7 +23530,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="117" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N25" s="89" t="s">
         <v>84</v>
@@ -24562,7 +24556,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="68" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B26" s="69" t="s">
         <v>75</v>
@@ -24574,7 +24568,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F26" s="70" t="s">
         <v>488</v>
@@ -24598,7 +24592,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="117" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N26" s="89" t="s">
         <v>84</v>
@@ -25624,7 +25618,7 @@
     </row>
     <row r="27" spans="1:1028" s="80" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="68" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>75</v>
@@ -25636,7 +25630,7 @@
         <v>500</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F27" s="70" t="s">
         <v>134</v>
@@ -25660,7 +25654,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="117" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N27" s="89" t="s">
         <v>84</v>
@@ -25698,7 +25692,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="68" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B28" s="69" t="s">
         <v>75</v>
@@ -25710,7 +25704,7 @@
         <v>500</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F28" s="70" t="s">
         <v>139</v>
@@ -25734,7 +25728,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="117" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N28" s="89" t="s">
         <v>84</v>
@@ -26762,7 +26756,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="68" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B29" s="69" t="s">
         <v>75</v>
@@ -26774,7 +26768,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F29" s="70" t="s">
         <v>144</v>
@@ -26798,7 +26792,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="117" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N29" s="89" t="s">
         <v>84</v>
@@ -27826,7 +27820,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B30" s="69" t="s">
         <v>75</v>
@@ -27838,7 +27832,7 @@
         <v>500</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F30" s="70" t="s">
         <v>149</v>
@@ -27862,7 +27856,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="117" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N30" s="89" t="s">
         <v>84</v>
@@ -28890,7 +28884,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="68" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>75</v>
@@ -28902,7 +28896,7 @@
         <v>500</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F31" s="70" t="s">
         <v>154</v>
@@ -28926,7 +28920,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="117" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N31" s="89" t="s">
         <v>84</v>
@@ -29954,7 +29948,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B32" s="69" t="s">
         <v>75</v>
@@ -29966,7 +29960,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F32" s="70" t="s">
         <v>159</v>
@@ -29990,7 +29984,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="117" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N32" s="89" t="s">
         <v>84</v>
@@ -31018,7 +31012,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="68" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B33" s="69" t="s">
         <v>75</v>
@@ -31030,7 +31024,7 @@
         <v>500</v>
       </c>
       <c r="E33" s="70" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F33" s="70" t="s">
         <v>163</v>
@@ -31054,7 +31048,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="117" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N33" s="89" t="s">
         <v>84</v>
@@ -32082,7 +32076,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="68" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B34" s="69" t="s">
         <v>75</v>
@@ -32094,7 +32088,7 @@
         <v>500</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F34" s="70" t="s">
         <v>173</v>
@@ -32118,7 +32112,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="117" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N34" s="89" t="s">
         <v>84</v>
@@ -33146,7 +33140,7 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="68" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B35" s="69" t="s">
         <v>75</v>
@@ -33158,7 +33152,7 @@
         <v>500</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F35" s="70" t="s">
         <v>177</v>
@@ -33182,7 +33176,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="117" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N35" s="89" t="s">
         <v>84</v>
@@ -34210,7 +34204,7 @@
     </row>
     <row r="36" spans="1:1028" s="81" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="68" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B36" s="69" t="s">
         <v>75</v>
@@ -34222,7 +34216,7 @@
         <v>500</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F36" s="70" t="s">
         <v>181</v>
@@ -34246,7 +34240,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="117" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N36" s="89" t="s">
         <v>84</v>
@@ -34284,7 +34278,7 @@
     </row>
     <row r="37" spans="1:1028" s="81" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="68" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B37" s="69" t="s">
         <v>75</v>
@@ -34296,7 +34290,7 @@
         <v>500</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F37" s="70" t="s">
         <v>185</v>
@@ -34320,7 +34314,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="117" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N37" s="89" t="s">
         <v>84</v>
@@ -34358,7 +34352,7 @@
     </row>
     <row r="38" spans="1:1028" s="81" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="68" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B38" s="69" t="s">
         <v>75</v>
@@ -34370,7 +34364,7 @@
         <v>500</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F38" s="70" t="s">
         <v>185</v>
@@ -34394,7 +34388,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="117" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N38" s="89" t="s">
         <v>84</v>
@@ -34432,7 +34426,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="68" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B39" s="69" t="s">
         <v>75</v>
@@ -34444,7 +34438,7 @@
         <v>500</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F39" s="70" t="s">
         <v>185</v>
@@ -34468,7 +34462,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="117" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N39" s="89" t="s">
         <v>84</v>
@@ -35496,7 +35490,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="68" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>75</v>
@@ -35508,7 +35502,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>185</v>
@@ -35532,7 +35526,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="117" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N40" s="89" t="s">
         <v>84</v>
@@ -36560,7 +36554,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="68" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B41" s="69" t="s">
         <v>75</v>
@@ -36572,7 +36566,7 @@
         <v>500</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F41" s="70" t="s">
         <v>185</v>
@@ -36596,7 +36590,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="117" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N41" s="89" t="s">
         <v>84</v>
@@ -37624,7 +37618,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="68" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B42" s="69" t="s">
         <v>75</v>
@@ -37636,7 +37630,7 @@
         <v>500</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>185</v>
@@ -37660,7 +37654,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="117" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N42" s="89" t="s">
         <v>84</v>
@@ -38688,7 +38682,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="68" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B43" s="69" t="s">
         <v>75</v>
@@ -38700,7 +38694,7 @@
         <v>500</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F43" s="70" t="s">
         <v>185</v>
@@ -38724,7 +38718,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="117" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N43" s="89" t="s">
         <v>84</v>
@@ -39752,7 +39746,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="68" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B44" s="69" t="s">
         <v>75</v>
@@ -39764,7 +39758,7 @@
         <v>500</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F44" s="70" t="s">
         <v>185</v>
@@ -39788,7 +39782,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="117" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N44" s="89" t="s">
         <v>84</v>
@@ -40816,7 +40810,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="68" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B45" s="69" t="s">
         <v>75</v>
@@ -40828,7 +40822,7 @@
         <v>500</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F45" s="70" t="s">
         <v>185</v>
@@ -40852,7 +40846,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="117" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N45" s="89" t="s">
         <v>84</v>
@@ -41880,7 +41874,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="68" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B46" s="69" t="s">
         <v>75</v>
@@ -41892,7 +41886,7 @@
         <v>500</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F46" s="70" t="s">
         <v>185</v>
@@ -41916,7 +41910,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="117" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N46" s="89" t="s">
         <v>84</v>
@@ -42944,7 +42938,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="68" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B47" s="69" t="s">
         <v>75</v>
@@ -42956,7 +42950,7 @@
         <v>500</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F47" s="70" t="s">
         <v>185</v>
@@ -42980,7 +42974,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="117" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N47" s="89" t="s">
         <v>84</v>
@@ -44008,7 +44002,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="68" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B48" s="69" t="s">
         <v>75</v>
@@ -44020,7 +44014,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F48" s="70" t="s">
         <v>185</v>
@@ -44044,7 +44038,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="117" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N48" s="89" t="s">
         <v>84</v>
@@ -45072,7 +45066,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="68" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B49" s="69" t="s">
         <v>75</v>
@@ -45084,7 +45078,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F49" s="70" t="s">
         <v>185</v>
@@ -45108,7 +45102,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="117" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N49" s="89" t="s">
         <v>84</v>
@@ -46136,7 +46130,7 @@
     </row>
     <row r="50" spans="1:1028" s="83" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="82" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B50" s="69" t="s">
         <v>75</v>
@@ -46148,7 +46142,7 @@
         <v>500</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F50" s="70" t="s">
         <v>185</v>
@@ -46172,7 +46166,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="117" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="N50" s="89" t="s">
         <v>84</v>
@@ -46210,7 +46204,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="82" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B51" s="69" t="s">
         <v>75</v>
@@ -46222,7 +46216,7 @@
         <v>500</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F51" s="70" t="s">
         <v>185</v>
@@ -46246,7 +46240,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="117" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N51" s="89" t="s">
         <v>84</v>
@@ -47274,7 +47268,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="82" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B52" s="69" t="s">
         <v>75</v>
@@ -47286,7 +47280,7 @@
         <v>500</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F52" s="70" t="s">
         <v>185</v>
@@ -47310,7 +47304,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="117" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="N52" s="89" t="s">
         <v>84</v>
@@ -48338,7 +48332,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="82" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B53" s="69" t="s">
         <v>75</v>
@@ -48350,7 +48344,7 @@
         <v>500</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F53" s="70" t="s">
         <v>185</v>
@@ -48374,7 +48368,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="117" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="N53" s="89" t="s">
         <v>84</v>
@@ -49402,7 +49396,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="82" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B54" s="69" t="s">
         <v>75</v>
@@ -49414,7 +49408,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F54" s="70" t="s">
         <v>185</v>
@@ -49438,7 +49432,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="117" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N54" s="89" t="s">
         <v>84</v>
@@ -50466,7 +50460,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="82" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B55" s="69" t="s">
         <v>75</v>
@@ -50478,7 +50472,7 @@
         <v>500</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F55" s="70" t="s">
         <v>185</v>
@@ -50502,7 +50496,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="117" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N55" s="89" t="s">
         <v>84</v>
@@ -51530,7 +51524,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="82" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B56" s="69" t="s">
         <v>75</v>
@@ -51542,7 +51536,7 @@
         <v>500</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F56" s="70" t="s">
         <v>185</v>
@@ -51566,7 +51560,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="117" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N56" s="89" t="s">
         <v>84</v>
